--- a/Energy Consumption33.xlsx
+++ b/Energy Consumption33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.070015005699807</v>
+        <v>0.9444217277969167</v>
       </c>
       <c r="C2" t="n">
-        <v>1.183762851687286</v>
+        <v>0.7596385166932943</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.236333873780845</v>
+        <v>2.774620064875066</v>
       </c>
       <c r="C3" t="n">
-        <v>2.427366995267422</v>
+        <v>1.567219113513667</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.33400129221877</v>
+        <v>2.842811268035476</v>
       </c>
       <c r="C4" t="n">
-        <v>3.542150481627249</v>
+        <v>2.48282065084712</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.047641434063475</v>
+        <v>6.317145538704567</v>
       </c>
       <c r="C5" t="n">
-        <v>4.692363070149744</v>
+        <v>3.264369499221528</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.83496164255211</v>
+        <v>14.28682616887567</v>
       </c>
       <c r="C6" t="n">
-        <v>6.439363175068592</v>
+        <v>4.032842906585683</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.19778215804737</v>
+        <v>14.70307976002099</v>
       </c>
       <c r="C7" t="n">
-        <v>7.361520014460614</v>
+        <v>4.857131403670579</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.54965903920877</v>
+        <v>24.33633155721219</v>
       </c>
       <c r="C8" t="n">
-        <v>8.513237367757826</v>
+        <v>5.830088419933242</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.71303895375171</v>
+        <v>24.35540936530362</v>
       </c>
       <c r="C9" t="n">
-        <v>9.634729652671279</v>
+        <v>6.634145107410721</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.07208569368996</v>
+        <v>24.55520156492015</v>
       </c>
       <c r="C10" t="n">
-        <v>11.10159289085727</v>
+        <v>7.532931176900971</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.99688281486642</v>
+        <v>25.58737130503432</v>
       </c>
       <c r="C11" t="n">
-        <v>12.58660151205251</v>
+        <v>8.617656791803665</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.57208350486599</v>
+        <v>27.56505196871588</v>
       </c>
       <c r="C12" t="n">
-        <v>14.0213676111792</v>
+        <v>9.775384836645197</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16.21870501711815</v>
+        <v>27.59744921442942</v>
       </c>
       <c r="C13" t="n">
-        <v>15.50961455003953</v>
+        <v>10.60364008882838</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.83880051134382</v>
+        <v>29.19384910424169</v>
       </c>
       <c r="C14" t="n">
-        <v>16.83733518437974</v>
+        <v>11.51125620987772</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0031797627508</v>
+        <v>29.95059616164134</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2967554545917</v>
+        <v>12.31078490084895</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.41199130906424</v>
+        <v>31.11240284493924</v>
       </c>
       <c r="C16" t="n">
-        <v>19.75693819951879</v>
+        <v>13.17359041439532</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7805317660716</v>
+        <v>39.32139463291346</v>
       </c>
       <c r="C17" t="n">
-        <v>21.37930489058682</v>
+        <v>14.08021841191362</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.21386755994967</v>
+        <v>41.06528662456996</v>
       </c>
       <c r="C18" t="n">
-        <v>23.31532777785749</v>
+        <v>15.11857542439947</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.30170389535533</v>
+        <v>41.12681888971752</v>
       </c>
       <c r="C19" t="n">
-        <v>24.52913722476534</v>
+        <v>15.94254763311054</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.203445255948</v>
+        <v>43.9714449547551</v>
       </c>
       <c r="C20" t="n">
-        <v>25.7603409402038</v>
+        <v>16.82672726633413</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>36.95366610085158</v>
+        <v>44.13687137843229</v>
       </c>
       <c r="C21" t="n">
-        <v>26.9277377642091</v>
+        <v>17.76365235960627</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37.31869599411299</v>
+        <v>44.9506947026916</v>
       </c>
       <c r="C22" t="n">
-        <v>28.20370975760047</v>
+        <v>18.54985545842045</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>37.42560895623696</v>
+        <v>50.92332393873234</v>
       </c>
       <c r="C23" t="n">
-        <v>29.38305982608371</v>
+        <v>19.47020674008733</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.671196217675</v>
+        <v>51.36930311469564</v>
       </c>
       <c r="C24" t="n">
-        <v>30.78004669846734</v>
+        <v>20.20014150814491</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>43.17942746530782</v>
+        <v>52.51444853689464</v>
       </c>
       <c r="C25" t="n">
-        <v>32.49485294758267</v>
+        <v>21.15309291617465</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.85052867026705</v>
+        <v>52.61457263523537</v>
       </c>
       <c r="C26" t="n">
-        <v>33.88409041098594</v>
+        <v>22.1148503524597</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.40077350947911</v>
+        <v>54.19806292821032</v>
       </c>
       <c r="C27" t="n">
-        <v>35.64758326292859</v>
+        <v>23.32560865525048</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.80613572619487</v>
+        <v>56.4623842614324</v>
       </c>
       <c r="C28" t="n">
-        <v>36.81035033765945</v>
+        <v>24.33288942349829</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.03258207298955</v>
+        <v>56.5093199449222</v>
       </c>
       <c r="C29" t="n">
-        <v>38.0401446551811</v>
+        <v>25.13269264296799</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58.82469839363188</v>
+        <v>57.471175849984</v>
       </c>
       <c r="C30" t="n">
-        <v>39.50475448081988</v>
+        <v>25.95504860793136</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.05902837477855</v>
+        <v>60.37867715277268</v>
       </c>
       <c r="C31" t="n">
-        <v>40.85294245080706</v>
+        <v>26.75094353749739</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61.67252994187616</v>
+        <v>60.44543289110976</v>
       </c>
       <c r="C32" t="n">
-        <v>42.0757881056434</v>
+        <v>27.52147650961148</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>64.31581640804744</v>
+        <v>68.3327834101155</v>
       </c>
       <c r="C33" t="n">
-        <v>43.44438972298732</v>
+        <v>28.40874845515717</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.09992492013917</v>
+        <v>68.44928422432412</v>
       </c>
       <c r="C34" t="n">
-        <v>45.07233261196628</v>
+        <v>29.4418428747889</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.54636622762906</v>
+        <v>69.95736642941638</v>
       </c>
       <c r="C35" t="n">
-        <v>46.22895328368507</v>
+        <v>30.23420146340424</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.66763613276896</v>
+        <v>70.35226861512035</v>
       </c>
       <c r="C36" t="n">
-        <v>47.26929824523486</v>
+        <v>31.12706738342384</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.47149031177899</v>
+        <v>73.08823877089569</v>
       </c>
       <c r="C37" t="n">
-        <v>49.03096375396833</v>
+        <v>31.90897906612092</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>70.11758113686339</v>
+        <v>78.23280621695574</v>
       </c>
       <c r="C38" t="n">
-        <v>50.75359974809875</v>
+        <v>32.78346059655551</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.79383560379716</v>
+        <v>78.30158476755604</v>
       </c>
       <c r="C39" t="n">
-        <v>51.89879787344834</v>
+        <v>33.62149765349496</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.42089228157565</v>
+        <v>79.38493040228788</v>
       </c>
       <c r="C40" t="n">
-        <v>53.36042104239451</v>
+        <v>34.39942600929621</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>79.45208932522337</v>
+        <v>80.11246476280844</v>
       </c>
       <c r="C41" t="n">
-        <v>54.5675893437903</v>
+        <v>35.21398455304369</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>81.63129998566806</v>
+        <v>80.14642671395357</v>
       </c>
       <c r="C42" t="n">
-        <v>55.6247951626535</v>
+        <v>36.05970035090213</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85.42229567659193</v>
+        <v>80.20121364511719</v>
       </c>
       <c r="C43" t="n">
-        <v>57.06397007988649</v>
+        <v>37.01599325989163</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>86.60441483807902</v>
+        <v>80.53196129647057</v>
       </c>
       <c r="C44" t="n">
-        <v>58.45520034034474</v>
+        <v>37.80106765351571</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.63365668990897</v>
+        <v>80.60161889964485</v>
       </c>
       <c r="C45" t="n">
-        <v>59.72469064206756</v>
+        <v>38.76069991282043</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.71733769542955</v>
+        <v>88.09664982805778</v>
       </c>
       <c r="C46" t="n">
-        <v>60.96157087596283</v>
+        <v>39.93725002330507</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>95.77206821121398</v>
+        <v>90.70728185263094</v>
       </c>
       <c r="C47" t="n">
-        <v>62.06160768241821</v>
+        <v>40.85446698094874</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>96.44888522076123</v>
+        <v>95.91199811428393</v>
       </c>
       <c r="C48" t="n">
-        <v>63.1468831937013</v>
+        <v>41.58407775096931</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99.47019604675006</v>
+        <v>95.97101012976707</v>
       </c>
       <c r="C49" t="n">
-        <v>64.64017138790327</v>
+        <v>42.50143184613968</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>98.78972240088119</v>
+      </c>
+      <c r="C50" t="n">
+        <v>43.26056095065733</v>
       </c>
     </row>
   </sheetData>
